--- a/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
+++ b/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA PGDKQLTD2</x:t>
   </x:si>
@@ -69,6 +69,12 @@
     <x:t>Ghi chú khác</x:t>
   </x:si>
   <x:si>
+    <x:t>IP Check In</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP Check Out</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA PGDBPM</x:t>
   </x:si>
   <x:si>
@@ -78,7 +84,16 @@
     <x:t>ttt</x:t>
   </x:si>
   <x:si>
+    <x:t>::1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thử nghiệm app</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA PHUONGLNL</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Check out tự động. </x:t>
   </x:si>
   <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA TBPPTQTQT</x:t>
@@ -218,19 +233,6 @@
       <x:diagonal/>
     </x:border>
     <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -245,74 +247,113 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="46" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="46" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -623,10 +664,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -642,58 +683,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -705,10 +753,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -720,10 +769,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -735,10 +785,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -750,10 +801,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -765,10 +817,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -780,10 +833,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -795,10 +849,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -810,10 +865,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -825,10 +881,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -840,10 +897,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -855,10 +913,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -870,10 +929,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -885,10 +945,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -900,10 +961,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -915,10 +977,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -930,10 +993,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -945,10 +1009,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -960,10 +1025,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -975,10 +1041,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -990,10 +1057,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -1005,10 +1073,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -1020,10 +1089,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -1035,10 +1105,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -1050,10 +1121,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -1065,10 +1137,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -1080,10 +1153,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -1095,10 +1169,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -1110,10 +1185,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -1125,10 +1201,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -1141,9 +1218,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -1156,33 +1234,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1204,10 +1284,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -1223,58 +1303,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -1286,10 +1373,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -1301,10 +1389,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -1316,10 +1405,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -1331,10 +1421,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -1346,10 +1437,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -1361,10 +1453,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -1376,10 +1469,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -1391,10 +1485,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -1406,10 +1501,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -1421,10 +1517,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -1436,10 +1533,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -1451,10 +1549,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -1466,10 +1565,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -1481,10 +1581,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -1496,10 +1597,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -1511,10 +1613,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -1526,10 +1629,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -1541,10 +1645,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -1556,10 +1661,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -1571,10 +1677,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -1586,10 +1693,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -1601,10 +1709,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -1616,10 +1725,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -1631,10 +1741,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -1646,10 +1757,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -1661,10 +1773,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -1676,10 +1789,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -1691,10 +1805,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -1706,10 +1821,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -1722,9 +1838,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -1737,33 +1854,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1785,10 +1904,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -1804,58 +1923,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -1867,10 +1993,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -1882,10 +2009,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -1897,10 +2025,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -1912,10 +2041,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -1927,10 +2057,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -1942,10 +2073,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -1957,10 +2089,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -1972,10 +2105,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -1987,10 +2121,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -2002,10 +2137,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -2017,10 +2153,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -2032,10 +2169,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -2047,10 +2185,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -2062,10 +2201,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -2077,10 +2217,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -2092,10 +2233,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -2107,10 +2249,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -2122,10 +2265,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -2137,10 +2281,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -2152,10 +2297,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -2167,10 +2313,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -2182,10 +2329,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -2197,10 +2345,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -2212,10 +2361,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -2227,10 +2377,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -2242,10 +2393,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -2257,10 +2409,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -2272,10 +2425,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -2287,10 +2441,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -2303,9 +2458,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -2318,33 +2474,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2366,10 +2524,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -2385,58 +2543,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -2448,10 +2613,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -2463,10 +2629,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -2478,10 +2645,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -2493,10 +2661,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -2508,10 +2677,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -2523,10 +2693,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -2538,10 +2709,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -2553,10 +2725,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -2568,10 +2741,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -2583,10 +2757,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -2598,10 +2773,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -2613,10 +2789,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -2628,10 +2805,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -2643,10 +2821,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -2658,10 +2837,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -2673,10 +2853,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -2688,10 +2869,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -2703,10 +2885,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -2718,10 +2901,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -2733,10 +2917,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -2748,10 +2933,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -2763,10 +2949,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -2778,10 +2965,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -2793,10 +2981,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -2808,10 +2997,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -2823,10 +3013,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -2838,10 +3029,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -2853,10 +3045,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -2868,10 +3061,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -2884,9 +3078,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -2899,33 +3094,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2947,10 +3144,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -2966,58 +3163,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -3029,10 +3233,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -3044,10 +3249,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -3059,10 +3265,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -3074,10 +3281,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -3089,10 +3297,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -3104,10 +3313,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -3119,10 +3329,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -3134,10 +3345,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -3149,10 +3361,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -3164,10 +3377,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -3179,10 +3393,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -3194,10 +3409,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -3209,10 +3425,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -3224,10 +3441,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -3239,10 +3457,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -3254,10 +3473,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -3269,10 +3489,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -3284,10 +3505,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -3299,10 +3521,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -3314,10 +3537,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -3329,10 +3553,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -3344,10 +3569,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -3359,10 +3585,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -3374,10 +3601,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -3389,10 +3617,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -3404,10 +3633,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -3419,10 +3649,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -3434,10 +3665,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -3449,10 +3681,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -3465,9 +3698,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -3480,33 +3714,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3528,10 +3764,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -3547,58 +3783,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -3610,10 +3853,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -3625,10 +3869,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -3640,10 +3885,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -3655,10 +3901,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -3670,10 +3917,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -3685,10 +3933,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -3700,10 +3949,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -3715,10 +3965,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -3730,10 +3981,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -3745,10 +3997,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -3760,10 +4013,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -3775,10 +4029,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -3790,10 +4045,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -3805,10 +4061,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -3820,10 +4077,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -3835,10 +4093,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -3850,10 +4109,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -3865,10 +4125,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -3880,10 +4141,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -3895,10 +4157,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -3910,10 +4173,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -3925,10 +4189,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -3940,10 +4205,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -3955,10 +4221,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -3970,10 +4237,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -3985,10 +4253,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -4000,10 +4269,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -4015,10 +4285,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -4030,10 +4301,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -4046,9 +4318,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -4061,33 +4334,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -4109,10 +4384,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -4128,58 +4403,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -4191,10 +4473,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -4206,10 +4489,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -4221,10 +4505,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -4236,10 +4521,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -4251,10 +4537,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -4266,10 +4553,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -4281,10 +4569,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -4296,10 +4585,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -4311,10 +4601,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -4326,10 +4617,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -4341,10 +4633,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -4356,10 +4649,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -4371,10 +4665,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -4386,10 +4681,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -4401,10 +4697,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -4416,10 +4713,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -4431,10 +4729,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -4446,10 +4745,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -4461,10 +4761,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -4476,10 +4777,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -4491,10 +4793,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -4506,10 +4809,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -4521,10 +4825,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -4536,10 +4841,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -4551,10 +4857,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -4566,10 +4873,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -4581,10 +4889,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -4596,10 +4905,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -4611,10 +4921,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -4627,9 +4938,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -4642,33 +4954,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -4690,10 +5004,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -4709,58 +5023,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -4772,10 +5093,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -4787,10 +5109,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -4802,10 +5125,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -4817,10 +5141,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -4832,10 +5157,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -4847,10 +5173,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -4862,10 +5189,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -4877,10 +5205,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -4892,10 +5221,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -4907,10 +5237,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -4922,10 +5253,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -4937,10 +5269,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -4952,10 +5285,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -4967,10 +5301,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -4982,10 +5317,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -4997,10 +5333,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -5012,10 +5349,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -5027,10 +5365,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -5042,10 +5381,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -5057,10 +5397,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -5072,10 +5413,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -5087,10 +5429,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -5102,10 +5445,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -5117,10 +5461,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -5132,10 +5477,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -5147,10 +5493,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -5162,10 +5509,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -5177,10 +5525,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -5192,10 +5541,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -5208,9 +5558,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -5223,33 +5574,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -5271,10 +5624,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -5288,60 +5641,67 @@
     <x:col min="7" max="7" width="11.620625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="8.470625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.760625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F3" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="12" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H3" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I3" s="12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J3" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K3" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L3" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F3" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G3" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H3" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I3" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J3" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K3" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -5353,10 +5713,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -5368,10 +5729,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -5383,10 +5745,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -5398,10 +5761,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -5413,10 +5777,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -5428,10 +5793,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -5443,10 +5809,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -5458,39 +5825,43 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="11">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="16">
         <x:v>44174</x:v>
       </x:c>
-      <x:c r="C12" s="12" t="n">
+      <x:c r="C12" s="17" t="n">
         <x:v>0.639583333333333</x:v>
       </x:c>
-      <x:c r="D12" s="12" t="n">
+      <x:c r="D12" s="17" t="n">
         <x:v>0.639583333333333</x:v>
       </x:c>
-      <x:c r="E12" s="13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F12" s="14" t="n">
+      <x:c r="E12" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F12" s="19" t="n">
         <x:v>440</x:v>
       </x:c>
-      <x:c r="G12" s="14" t="s"/>
-      <x:c r="H12" s="13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I12" s="14" t="n">
+      <x:c r="G12" s="19" t="s"/>
+      <x:c r="H12" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I12" s="19" t="n">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="J12" s="14" t="s"/>
-      <x:c r="K12" s="14" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L12" s="14" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="J12" s="19" t="s"/>
+      <x:c r="K12" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="L12" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M12" s="20" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -5502,25 +5873,45 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="16">
         <x:v>44176</x:v>
       </x:c>
-      <x:c r="C14" s="3" t="s"/>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s"/>
-      <x:c r="F14" s="3" t="s"/>
-      <x:c r="G14" s="3" t="s"/>
-      <x:c r="H14" s="3" t="s"/>
-      <x:c r="I14" s="3" t="s"/>
-      <x:c r="J14" s="3" t="s"/>
-      <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="C14" s="17" t="n">
+        <x:v>0.399305555555556</x:v>
+      </x:c>
+      <x:c r="D14" s="17" t="n">
+        <x:v>0.399305555555556</x:v>
+      </x:c>
+      <x:c r="E14" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="19" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G14" s="19" t="s"/>
+      <x:c r="H14" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I14" s="19" t="n">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="J14" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K14" s="19" t="s"/>
+      <x:c r="L14" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M14" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -5532,10 +5923,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -5547,10 +5939,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -5562,10 +5955,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -5577,10 +5971,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -5592,10 +5987,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -5607,10 +6003,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -5622,10 +6019,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -5637,10 +6035,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -5652,10 +6051,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -5667,10 +6067,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -5682,10 +6083,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -5697,10 +6099,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -5712,10 +6115,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -5727,10 +6131,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -5742,10 +6147,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -5757,10 +6163,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -5772,10 +6179,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -5787,10 +6195,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -5803,9 +6212,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -5818,33 +6228,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F35" s="10" t="n">
-        <x:v>440</x:v>
-      </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I35" s="10" t="n">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F35" s="15" t="n">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I35" s="15" t="n">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -5866,10 +6278,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -5884,59 +6296,66 @@
     <x:col min="8" max="8" width="8.470625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.110625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -5948,10 +6367,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -5963,10 +6383,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -5978,10 +6399,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -5993,10 +6415,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -6008,10 +6431,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -6023,10 +6447,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -6038,10 +6463,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -6053,33 +6479,39 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="11">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="16">
         <x:v>44174</x:v>
       </x:c>
-      <x:c r="C12" s="12" t="n">
+      <x:c r="C12" s="17" t="n">
         <x:v>0.633333333333333</x:v>
       </x:c>
-      <x:c r="D12" s="14" t="s"/>
-      <x:c r="E12" s="13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F12" s="14" t="n">
+      <x:c r="D12" s="19" t="s"/>
+      <x:c r="E12" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F12" s="19" t="n">
         <x:v>431</x:v>
       </x:c>
-      <x:c r="G12" s="14" t="s"/>
-      <x:c r="H12" s="14" t="s"/>
-      <x:c r="I12" s="14" t="n">
+      <x:c r="G12" s="19" t="s"/>
+      <x:c r="H12" s="19" t="s"/>
+      <x:c r="I12" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="14" t="s"/>
-      <x:c r="K12" s="14" t="s"/>
-      <x:c r="L12" s="14" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="J12" s="19" t="s"/>
+      <x:c r="K12" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L12" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M12" s="20" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -6091,25 +6523,37 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="16">
         <x:v>44176</x:v>
       </x:c>
-      <x:c r="C14" s="3" t="s"/>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s"/>
-      <x:c r="F14" s="3" t="s"/>
-      <x:c r="G14" s="3" t="s"/>
-      <x:c r="H14" s="3" t="s"/>
-      <x:c r="I14" s="3" t="s"/>
-      <x:c r="J14" s="3" t="s"/>
-      <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="C14" s="17" t="n">
+        <x:v>0.397916666666667</x:v>
+      </x:c>
+      <x:c r="D14" s="19" t="s"/>
+      <x:c r="E14" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="19" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G14" s="19" t="s"/>
+      <x:c r="H14" s="19" t="s"/>
+      <x:c r="I14" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="19" t="s"/>
+      <x:c r="K14" s="19" t="s"/>
+      <x:c r="L14" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M14" s="20" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -6121,10 +6565,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -6136,10 +6581,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -6151,10 +6597,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -6166,10 +6613,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -6181,10 +6629,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -6196,10 +6645,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -6211,10 +6661,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -6226,10 +6677,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -6241,10 +6693,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -6256,10 +6709,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -6271,10 +6725,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -6286,10 +6741,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -6301,10 +6757,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -6316,10 +6773,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -6331,10 +6789,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -6346,10 +6805,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -6361,10 +6821,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -6376,10 +6837,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -6392,9 +6854,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -6407,33 +6870,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F35" s="10" t="n">
-        <x:v>431</x:v>
-      </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F35" s="15" t="n">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -6455,10 +6920,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -6474,58 +6939,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -6537,10 +7009,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -6552,10 +7025,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -6567,10 +7041,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -6582,10 +7057,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -6597,10 +7073,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -6612,10 +7089,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -6627,10 +7105,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -6642,10 +7121,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -6657,10 +7137,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -6672,10 +7153,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -6687,10 +7169,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -6702,10 +7185,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -6717,10 +7201,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -6732,10 +7217,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -6747,10 +7233,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -6762,10 +7249,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -6777,10 +7265,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -6792,10 +7281,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -6807,10 +7297,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -6822,10 +7313,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -6837,10 +7329,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -6852,10 +7345,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -6867,10 +7361,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -6882,10 +7377,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -6897,10 +7393,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -6912,10 +7409,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -6927,10 +7425,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -6942,10 +7441,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -6957,10 +7457,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -6973,9 +7474,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -6988,33 +7490,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -7036,10 +7540,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -7055,58 +7559,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -7118,10 +7629,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -7133,10 +7645,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -7148,10 +7661,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -7163,10 +7677,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -7178,10 +7693,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -7193,10 +7709,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -7208,10 +7725,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -7223,10 +7741,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -7238,10 +7757,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -7253,10 +7773,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -7268,10 +7789,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -7283,10 +7805,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -7298,10 +7821,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -7313,10 +7837,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -7328,10 +7853,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -7343,10 +7869,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -7358,10 +7885,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -7373,10 +7901,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -7388,10 +7917,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -7403,10 +7933,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -7418,10 +7949,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -7433,10 +7965,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -7448,10 +7981,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -7463,10 +7997,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -7478,10 +8013,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -7493,10 +8029,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -7508,10 +8045,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -7523,10 +8061,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -7538,10 +8077,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -7554,9 +8094,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -7569,33 +8110,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -7617,10 +8160,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -7636,58 +8179,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -7699,10 +8249,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -7714,10 +8265,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -7729,10 +8281,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -7744,10 +8297,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -7759,10 +8313,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -7774,10 +8329,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -7789,10 +8345,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -7804,10 +8361,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -7819,10 +8377,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -7834,10 +8393,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -7849,10 +8409,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -7864,10 +8425,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -7879,10 +8441,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -7894,10 +8457,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -7909,10 +8473,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -7924,10 +8489,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -7939,10 +8505,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -7954,10 +8521,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -7969,10 +8537,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -7984,10 +8553,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -7999,10 +8569,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -8014,10 +8585,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -8029,10 +8601,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -8044,10 +8617,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -8059,10 +8633,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -8074,10 +8649,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -8089,10 +8665,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -8104,10 +8681,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -8119,10 +8697,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -8135,9 +8714,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -8150,33 +8730,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -8198,10 +8780,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -8217,58 +8799,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -8280,10 +8869,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -8295,10 +8885,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -8310,10 +8901,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -8325,10 +8917,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -8340,10 +8933,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -8355,10 +8949,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -8370,10 +8965,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -8385,10 +8981,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -8400,10 +8997,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -8415,10 +9013,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -8430,10 +9029,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -8445,10 +9045,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -8460,10 +9061,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -8475,10 +9077,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -8490,10 +9093,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -8505,10 +9109,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -8520,10 +9125,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -8535,10 +9141,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -8550,10 +9157,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -8565,10 +9173,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -8580,10 +9189,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -8595,10 +9205,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -8610,10 +9221,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -8625,10 +9237,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -8640,10 +9253,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -8655,10 +9269,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -8670,10 +9285,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -8685,10 +9301,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -8700,10 +9317,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -8716,9 +9334,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -8731,33 +9350,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -8779,10 +9400,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D24" sqref="D24"/>
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4"/>
@@ -8798,58 +9419,65 @@
     <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:12" customFormat="1" ht="17.4" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
-      <x:c r="F2" s="7" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
-      <x:c r="H2" s="7" t="s"/>
-      <x:c r="I2" s="7" t="s"/>
-      <x:c r="J2" s="7" t="s"/>
-      <x:c r="K2" s="7" t="s"/>
-      <x:c r="L2" s="7" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="8" t="s">
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="8" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="D3" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="8" t="s">
+      <x:c r="F3" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="8" t="s">
+      <x:c r="G3" s="12" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="H3" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="8" t="s">
+      <x:c r="I3" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="8" t="s">
+      <x:c r="J3" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="8" t="s">
+      <x:c r="K3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="B4" s="9">
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
         <x:v>44166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
@@ -8861,10 +9489,11 @@
       <x:c r="I4" s="3" t="s"/>
       <x:c r="J4" s="3" t="s"/>
       <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="B5" s="9">
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
         <x:v>44167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s"/>
@@ -8876,10 +9505,11 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
       <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="B6" s="9">
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
         <x:v>44168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s"/>
@@ -8891,10 +9521,11 @@
       <x:c r="I6" s="3" t="s"/>
       <x:c r="J6" s="3" t="s"/>
       <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="B7" s="9">
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
         <x:v>44169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s"/>
@@ -8906,10 +9537,11 @@
       <x:c r="I7" s="3" t="s"/>
       <x:c r="J7" s="3" t="s"/>
       <x:c r="K7" s="3" t="s"/>
-      <x:c r="L7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="B8" s="9">
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
         <x:v>44170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
@@ -8921,10 +9553,11 @@
       <x:c r="I8" s="3" t="s"/>
       <x:c r="J8" s="3" t="s"/>
       <x:c r="K8" s="3" t="s"/>
-      <x:c r="L8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="B9" s="9">
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
         <x:v>44171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s"/>
@@ -8936,10 +9569,11 @@
       <x:c r="I9" s="3" t="s"/>
       <x:c r="J9" s="3" t="s"/>
       <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="B10" s="9">
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
         <x:v>44172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s"/>
@@ -8951,10 +9585,11 @@
       <x:c r="I10" s="3" t="s"/>
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="B11" s="9">
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
         <x:v>44173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s"/>
@@ -8966,10 +9601,11 @@
       <x:c r="I11" s="3" t="s"/>
       <x:c r="J11" s="3" t="s"/>
       <x:c r="K11" s="3" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="B12" s="9">
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
         <x:v>44174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s"/>
@@ -8981,10 +9617,11 @@
       <x:c r="I12" s="3" t="s"/>
       <x:c r="J12" s="3" t="s"/>
       <x:c r="K12" s="3" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="B13" s="9">
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
         <x:v>44175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s"/>
@@ -8996,10 +9633,11 @@
       <x:c r="I13" s="3" t="s"/>
       <x:c r="J13" s="3" t="s"/>
       <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="B14" s="9">
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
         <x:v>44176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s"/>
@@ -9011,10 +9649,11 @@
       <x:c r="I14" s="3" t="s"/>
       <x:c r="J14" s="3" t="s"/>
       <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
-      <x:c r="B15" s="9">
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s"/>
@@ -9026,10 +9665,11 @@
       <x:c r="I15" s="3" t="s"/>
       <x:c r="J15" s="3" t="s"/>
       <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="B16" s="9">
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
         <x:v>44178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s"/>
@@ -9041,10 +9681,11 @@
       <x:c r="I16" s="3" t="s"/>
       <x:c r="J16" s="3" t="s"/>
       <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="B17" s="9">
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
         <x:v>44179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s"/>
@@ -9056,10 +9697,11 @@
       <x:c r="I17" s="3" t="s"/>
       <x:c r="J17" s="3" t="s"/>
       <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
-      <x:c r="B18" s="9">
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
         <x:v>44180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s"/>
@@ -9071,10 +9713,11 @@
       <x:c r="I18" s="3" t="s"/>
       <x:c r="J18" s="3" t="s"/>
       <x:c r="K18" s="3" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
-      <x:c r="B19" s="9">
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
         <x:v>44181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s"/>
@@ -9086,10 +9729,11 @@
       <x:c r="I19" s="3" t="s"/>
       <x:c r="J19" s="3" t="s"/>
       <x:c r="K19" s="3" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="B20" s="9">
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
         <x:v>44182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s"/>
@@ -9101,10 +9745,11 @@
       <x:c r="I20" s="3" t="s"/>
       <x:c r="J20" s="3" t="s"/>
       <x:c r="K20" s="3" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
-      <x:c r="B21" s="9">
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
         <x:v>44183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s"/>
@@ -9116,10 +9761,11 @@
       <x:c r="I21" s="3" t="s"/>
       <x:c r="J21" s="3" t="s"/>
       <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
-      <x:c r="B22" s="9">
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
         <x:v>44184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s"/>
@@ -9131,10 +9777,11 @@
       <x:c r="I22" s="3" t="s"/>
       <x:c r="J22" s="3" t="s"/>
       <x:c r="K22" s="3" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
-      <x:c r="B23" s="9">
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
         <x:v>44185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s"/>
@@ -9146,10 +9793,11 @@
       <x:c r="I23" s="3" t="s"/>
       <x:c r="J23" s="3" t="s"/>
       <x:c r="K23" s="3" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
-      <x:c r="B24" s="9">
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
         <x:v>44186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s"/>
@@ -9161,10 +9809,11 @@
       <x:c r="I24" s="3" t="s"/>
       <x:c r="J24" s="3" t="s"/>
       <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
-      <x:c r="B25" s="9">
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
         <x:v>44187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s"/>
@@ -9176,10 +9825,11 @@
       <x:c r="I25" s="3" t="s"/>
       <x:c r="J25" s="3" t="s"/>
       <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
-      <x:c r="B26" s="9">
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
         <x:v>44188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s"/>
@@ -9191,10 +9841,11 @@
       <x:c r="I26" s="3" t="s"/>
       <x:c r="J26" s="3" t="s"/>
       <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
-      <x:c r="B27" s="9">
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
         <x:v>44189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s"/>
@@ -9206,10 +9857,11 @@
       <x:c r="I27" s="3" t="s"/>
       <x:c r="J27" s="3" t="s"/>
       <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
-      <x:c r="B28" s="9">
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
         <x:v>44190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s"/>
@@ -9221,10 +9873,11 @@
       <x:c r="I28" s="3" t="s"/>
       <x:c r="J28" s="3" t="s"/>
       <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
-      <x:c r="B29" s="9">
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
         <x:v>44191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s"/>
@@ -9236,10 +9889,11 @@
       <x:c r="I29" s="3" t="s"/>
       <x:c r="J29" s="3" t="s"/>
       <x:c r="K29" s="3" t="s"/>
-      <x:c r="L29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
-      <x:c r="B30" s="9">
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
         <x:v>44192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s"/>
@@ -9251,10 +9905,11 @@
       <x:c r="I30" s="3" t="s"/>
       <x:c r="J30" s="3" t="s"/>
       <x:c r="K30" s="3" t="s"/>
-      <x:c r="L30" s="3" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
-      <x:c r="B31" s="9">
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
         <x:v>44193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s"/>
@@ -9266,10 +9921,11 @@
       <x:c r="I31" s="3" t="s"/>
       <x:c r="J31" s="3" t="s"/>
       <x:c r="K31" s="3" t="s"/>
-      <x:c r="L31" s="3" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
-      <x:c r="B32" s="9">
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
         <x:v>44194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s"/>
@@ -9281,10 +9937,11 @@
       <x:c r="I32" s="3" t="s"/>
       <x:c r="J32" s="3" t="s"/>
       <x:c r="K32" s="3" t="s"/>
-      <x:c r="L32" s="3" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
-      <x:c r="B33" s="9">
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
         <x:v>44195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s"/>
@@ -9297,9 +9954,10 @@
       <x:c r="J33" s="3" t="s"/>
       <x:c r="K33" s="3" t="s"/>
       <x:c r="L33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
-      <x:c r="B34" s="9">
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
         <x:v>44196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s"/>
@@ -9312,33 +9970,35 @@
       <x:c r="J34" s="3" t="s"/>
       <x:c r="K34" s="3" t="s"/>
       <x:c r="L34" s="3" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="B35" s="10" t="s"/>
-      <x:c r="C35" s="10" t="n">
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D35" s="10" t="s"/>
-      <x:c r="E35" s="10" t="n">
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F35" s="10" t="n">
+      <x:c r="F35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="10" t="n">
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I35" s="10" t="n">
+      <x:c r="I35" s="15" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J35" s="10" t="s"/>
-      <x:c r="K35" s="10" t="s"/>
-      <x:c r="L35" s="10" t="s"/>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:L2"/>
+    <x:mergeCell ref="B2:K2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
+++ b/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
@@ -5845,9 +5845,7 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s"/>
-      <x:c r="H12" s="18" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="H12" s="19" t="s"/>
       <x:c r="I12" s="19" t="n">
         <x:v>98</x:v>
       </x:c>
@@ -6244,7 +6242,7 @@
       </x:c>
       <x:c r="G35" s="15" t="s"/>
       <x:c r="H35" s="15" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="15" t="n">
         <x:v>542</x:v>
@@ -6546,27 +6544,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s"/>
-      <x:c r="K14" s="19" t="s"/>
+      <x:c r="K14" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="L14" s="20" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="M14" s="20" t="s"/>
     </x:row>
     <x:row r="15" spans="1:13">
-      <x:c r="B15" s="14">
+      <x:c r="B15" s="16">
         <x:v>44177</x:v>
       </x:c>
-      <x:c r="C15" s="3" t="s"/>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s"/>
-      <x:c r="F15" s="3" t="s"/>
-      <x:c r="G15" s="3" t="s"/>
-      <x:c r="H15" s="3" t="s"/>
-      <x:c r="I15" s="3" t="s"/>
-      <x:c r="J15" s="3" t="s"/>
-      <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="10" t="s"/>
-      <x:c r="M15" s="10" t="s"/>
+      <x:c r="C15" s="17" t="n">
+        <x:v>0.390277777777778</x:v>
+      </x:c>
+      <x:c r="D15" s="19" t="s"/>
+      <x:c r="E15" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="19" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G15" s="19" t="s"/>
+      <x:c r="H15" s="19" t="s"/>
+      <x:c r="I15" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="19" t="s"/>
+      <x:c r="K15" s="19" t="s"/>
+      <x:c r="L15" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M15" s="20" t="s"/>
     </x:row>
     <x:row r="16" spans="1:13">
       <x:c r="B16" s="14">
@@ -6875,14 +6885,14 @@
     <x:row r="35" spans="1:13">
       <x:c r="B35" s="15" t="s"/>
       <x:c r="C35" s="15" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D35" s="15" t="s"/>
       <x:c r="E35" s="15" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="15" t="n">
-        <x:v>523</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="G35" s="15" t="s"/>
       <x:c r="H35" s="15" t="n">

--- a/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
+++ b/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA PGDKQLTD2</x:t>
   </x:si>
@@ -88,6 +88,15 @@
   </x:si>
   <x:si>
     <x:t>Thử nghiệm app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>def</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
   <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA PHUONGLNL</x:t>
@@ -263,7 +272,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="13">
+  <x:cellStyleXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -301,8 +310,11 @@
     <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -357,6 +369,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -688,7 +704,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -1308,7 +1324,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -1928,7 +1944,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -2548,7 +2564,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -3168,7 +3184,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -3788,7 +3804,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -4408,7 +4424,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -5845,7 +5861,9 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s"/>
-      <x:c r="H12" s="19" t="s"/>
+      <x:c r="H12" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="I12" s="19" t="n">
         <x:v>98</x:v>
       </x:c>
@@ -5882,7 +5900,7 @@
         <x:v>0.399305555555556</x:v>
       </x:c>
       <x:c r="D14" s="17" t="n">
-        <x:v>0.399305555555556</x:v>
+        <x:v>0.774305555555555</x:v>
       </x:c>
       <x:c r="E14" s="18" t="s">
         <x:v>14</x:v>
@@ -5891,11 +5909,9 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s"/>
-      <x:c r="H14" s="18" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="H14" s="19" t="s"/>
       <x:c r="I14" s="19" t="n">
-        <x:v>444</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
         <x:v>17</x:v>
@@ -6005,20 +6021,36 @@
       <x:c r="M20" s="10" t="s"/>
     </x:row>
     <x:row r="21" spans="1:13">
-      <x:c r="B21" s="14">
+      <x:c r="B21" s="16">
         <x:v>44183</x:v>
       </x:c>
-      <x:c r="C21" s="3" t="s"/>
-      <x:c r="D21" s="3" t="s"/>
-      <x:c r="E21" s="3" t="s"/>
-      <x:c r="F21" s="3" t="s"/>
-      <x:c r="G21" s="3" t="s"/>
-      <x:c r="H21" s="3" t="s"/>
-      <x:c r="I21" s="3" t="s"/>
-      <x:c r="J21" s="3" t="s"/>
-      <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="10" t="s"/>
-      <x:c r="M21" s="10" t="s"/>
+      <x:c r="C21" s="17" t="n">
+        <x:v>0.38125</x:v>
+      </x:c>
+      <x:c r="D21" s="17" t="n">
+        <x:v>0.75625</x:v>
+      </x:c>
+      <x:c r="E21" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="19" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G21" s="19" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H21" s="19" t="s"/>
+      <x:c r="I21" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J21" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K21" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L21" s="20" t="s"/>
+      <x:c r="M21" s="20" t="s"/>
     </x:row>
     <x:row r="22" spans="1:13">
       <x:c r="B22" s="14">
@@ -6231,21 +6263,21 @@
     <x:row r="35" spans="1:13">
       <x:c r="B35" s="15" t="s"/>
       <x:c r="C35" s="15" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D35" s="15" t="s"/>
       <x:c r="E35" s="15" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="15" t="n">
-        <x:v>534</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="G35" s="15" t="s"/>
       <x:c r="H35" s="15" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="15" t="n">
-        <x:v>542</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J35" s="15" t="s"/>
       <x:c r="K35" s="15" t="s"/>
@@ -6300,7 +6332,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -6501,7 +6533,7 @@
       </x:c>
       <x:c r="J12" s="19" t="s"/>
       <x:c r="K12" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L12" s="20" t="s">
         <x:v>16</x:v>
@@ -6545,7 +6577,7 @@
       </x:c>
       <x:c r="J14" s="19" t="s"/>
       <x:c r="K14" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L14" s="20" t="s">
         <x:v>16</x:v>
@@ -6553,30 +6585,30 @@
       <x:c r="M14" s="20" t="s"/>
     </x:row>
     <x:row r="15" spans="1:13">
-      <x:c r="B15" s="16">
+      <x:c r="B15" s="14">
         <x:v>44177</x:v>
       </x:c>
-      <x:c r="C15" s="17" t="n">
-        <x:v>0.390277777777778</x:v>
-      </x:c>
-      <x:c r="D15" s="19" t="s"/>
-      <x:c r="E15" s="18" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F15" s="19" t="n">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G15" s="19" t="s"/>
-      <x:c r="H15" s="19" t="s"/>
-      <x:c r="I15" s="19" t="n">
+      <x:c r="C15" s="21" t="n">
+        <x:v>0.306944444444444</x:v>
+      </x:c>
+      <x:c r="D15" s="21" t="n">
+        <x:v>0.515277777777778</x:v>
+      </x:c>
+      <x:c r="E15" s="3" t="s"/>
+      <x:c r="F15" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J15" s="19" t="s"/>
-      <x:c r="K15" s="19" t="s"/>
-      <x:c r="L15" s="20" t="s">
+      <x:c r="G15" s="3" t="s"/>
+      <x:c r="H15" s="3" t="s"/>
+      <x:c r="I15" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="3" t="s"/>
+      <x:c r="K15" s="3" t="s"/>
+      <x:c r="L15" s="10" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="M15" s="20" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
     </x:row>
     <x:row r="16" spans="1:13">
       <x:c r="B16" s="14">
@@ -6595,20 +6627,32 @@
       <x:c r="M16" s="10" t="s"/>
     </x:row>
     <x:row r="17" spans="1:13">
-      <x:c r="B17" s="14">
+      <x:c r="B17" s="16">
         <x:v>44179</x:v>
       </x:c>
-      <x:c r="C17" s="3" t="s"/>
-      <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="3" t="s"/>
-      <x:c r="F17" s="3" t="s"/>
-      <x:c r="G17" s="3" t="s"/>
-      <x:c r="H17" s="3" t="s"/>
-      <x:c r="I17" s="3" t="s"/>
-      <x:c r="J17" s="3" t="s"/>
-      <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="10" t="s"/>
-      <x:c r="M17" s="10" t="s"/>
+      <x:c r="C17" s="17" t="n">
+        <x:v>0.345138888888889</x:v>
+      </x:c>
+      <x:c r="D17" s="19" t="s"/>
+      <x:c r="E17" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="19" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G17" s="19" t="s"/>
+      <x:c r="H17" s="19" t="s"/>
+      <x:c r="I17" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J17" s="19" t="s"/>
+      <x:c r="K17" s="19" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L17" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M17" s="20" t="s"/>
     </x:row>
     <x:row r="18" spans="1:13">
       <x:c r="B18" s="14">
@@ -6659,20 +6703,30 @@
       <x:c r="M20" s="10" t="s"/>
     </x:row>
     <x:row r="21" spans="1:13">
-      <x:c r="B21" s="14">
+      <x:c r="B21" s="16">
         <x:v>44183</x:v>
       </x:c>
-      <x:c r="C21" s="3" t="s"/>
-      <x:c r="D21" s="3" t="s"/>
-      <x:c r="E21" s="3" t="s"/>
-      <x:c r="F21" s="3" t="s"/>
-      <x:c r="G21" s="3" t="s"/>
-      <x:c r="H21" s="3" t="s"/>
-      <x:c r="I21" s="3" t="s"/>
-      <x:c r="J21" s="3" t="s"/>
-      <x:c r="K21" s="3" t="s"/>
-      <x:c r="L21" s="10" t="s"/>
-      <x:c r="M21" s="10" t="s"/>
+      <x:c r="C21" s="17" t="n">
+        <x:v>0.336805555555556</x:v>
+      </x:c>
+      <x:c r="D21" s="19" t="s"/>
+      <x:c r="E21" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="19" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G21" s="19" t="s"/>
+      <x:c r="H21" s="19" t="s"/>
+      <x:c r="I21" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J21" s="19" t="s"/>
+      <x:c r="K21" s="19" t="s"/>
+      <x:c r="L21" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M21" s="20" t="s"/>
     </x:row>
     <x:row r="22" spans="1:13">
       <x:c r="B22" s="14">
@@ -6885,14 +6939,14 @@
     <x:row r="35" spans="1:13">
       <x:c r="B35" s="15" t="s"/>
       <x:c r="C35" s="15" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="15" t="s"/>
       <x:c r="E35" s="15" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F35" s="15" t="n">
-        <x:v>604</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="G35" s="15" t="s"/>
       <x:c r="H35" s="15" t="n">
@@ -6954,7 +7008,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -7574,7 +7628,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -8194,7 +8248,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -8814,7 +8868,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>
@@ -9434,7 +9488,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s"/>
       <x:c r="D2" s="11" t="s"/>

--- a/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
+++ b/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
@@ -27,6 +27,7 @@
     <x:sheet name="vhht1" sheetId="17" r:id="rId17"/>
     <x:sheet name="vhht2" sheetId="18" r:id="rId18"/>
     <x:sheet name="vhht3" sheetId="19" r:id="rId19"/>
+    <x:sheet name="thukytgd1" sheetId="20" r:id="rId20"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA PGDKQLTD2</x:t>
   </x:si>
@@ -139,6 +140,9 @@
   </x:si>
   <x:si>
     <x:t>CHI TIẾT CHẤM CÔNG CỦA VHHT3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHI TIẾT CHẤM CÔNG CỦA THƯ KÝ TGĐ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -5015,6 +5019,626 @@
 </x:worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M35"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="K10" sqref="K10"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.620625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.370625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.790625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="6.690625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.530625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.620625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.470625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.390625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.300625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="12.930625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="12.886719" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="1:13" customFormat="1" ht="17.4" customHeight="1">
+      <x:c r="B2" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
+      <x:c r="I2" s="11" t="s"/>
+      <x:c r="J2" s="11" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="8" t="s"/>
+      <x:c r="M2" s="8" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="B3" s="12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F3" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="12" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H3" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I3" s="12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J3" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K3" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="B4" s="14">
+        <x:v>44166</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="3" t="s"/>
+      <x:c r="H4" s="3" t="s"/>
+      <x:c r="I4" s="3" t="s"/>
+      <x:c r="J4" s="3" t="s"/>
+      <x:c r="K4" s="3" t="s"/>
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="B5" s="14">
+        <x:v>44167</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s"/>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+      <x:c r="H5" s="3" t="s"/>
+      <x:c r="I5" s="3" t="s"/>
+      <x:c r="J5" s="3" t="s"/>
+      <x:c r="K5" s="3" t="s"/>
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="B6" s="14">
+        <x:v>44168</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+      <x:c r="H6" s="3" t="s"/>
+      <x:c r="I6" s="3" t="s"/>
+      <x:c r="J6" s="3" t="s"/>
+      <x:c r="K6" s="3" t="s"/>
+      <x:c r="L6" s="10" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="B7" s="14">
+        <x:v>44169</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s"/>
+      <x:c r="D7" s="3" t="s"/>
+      <x:c r="E7" s="3" t="s"/>
+      <x:c r="F7" s="3" t="s"/>
+      <x:c r="G7" s="3" t="s"/>
+      <x:c r="H7" s="3" t="s"/>
+      <x:c r="I7" s="3" t="s"/>
+      <x:c r="J7" s="3" t="s"/>
+      <x:c r="K7" s="3" t="s"/>
+      <x:c r="L7" s="10" t="s"/>
+      <x:c r="M7" s="10" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="B8" s="14">
+        <x:v>44170</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s"/>
+      <x:c r="D8" s="3" t="s"/>
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="3" t="s"/>
+      <x:c r="H8" s="3" t="s"/>
+      <x:c r="I8" s="3" t="s"/>
+      <x:c r="J8" s="3" t="s"/>
+      <x:c r="K8" s="3" t="s"/>
+      <x:c r="L8" s="10" t="s"/>
+      <x:c r="M8" s="10" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="B9" s="14">
+        <x:v>44171</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s"/>
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+      <x:c r="I9" s="3" t="s"/>
+      <x:c r="J9" s="3" t="s"/>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="L9" s="10" t="s"/>
+      <x:c r="M9" s="10" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="B10" s="14">
+        <x:v>44172</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s"/>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s"/>
+      <x:c r="F10" s="3" t="s"/>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s"/>
+      <x:c r="I10" s="3" t="s"/>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="3" t="s"/>
+      <x:c r="L10" s="10" t="s"/>
+      <x:c r="M10" s="10" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="B11" s="14">
+        <x:v>44173</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s"/>
+      <x:c r="D11" s="3" t="s"/>
+      <x:c r="E11" s="3" t="s"/>
+      <x:c r="F11" s="3" t="s"/>
+      <x:c r="G11" s="3" t="s"/>
+      <x:c r="H11" s="3" t="s"/>
+      <x:c r="I11" s="3" t="s"/>
+      <x:c r="J11" s="3" t="s"/>
+      <x:c r="K11" s="3" t="s"/>
+      <x:c r="L11" s="10" t="s"/>
+      <x:c r="M11" s="10" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="B12" s="14">
+        <x:v>44174</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s"/>
+      <x:c r="D12" s="3" t="s"/>
+      <x:c r="E12" s="3" t="s"/>
+      <x:c r="F12" s="3" t="s"/>
+      <x:c r="G12" s="3" t="s"/>
+      <x:c r="H12" s="3" t="s"/>
+      <x:c r="I12" s="3" t="s"/>
+      <x:c r="J12" s="3" t="s"/>
+      <x:c r="K12" s="3" t="s"/>
+      <x:c r="L12" s="10" t="s"/>
+      <x:c r="M12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="B13" s="14">
+        <x:v>44175</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+      <x:c r="H13" s="3" t="s"/>
+      <x:c r="I13" s="3" t="s"/>
+      <x:c r="J13" s="3" t="s"/>
+      <x:c r="K13" s="3" t="s"/>
+      <x:c r="L13" s="10" t="s"/>
+      <x:c r="M13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="B14" s="14">
+        <x:v>44176</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s"/>
+      <x:c r="D14" s="3" t="s"/>
+      <x:c r="E14" s="3" t="s"/>
+      <x:c r="F14" s="3" t="s"/>
+      <x:c r="G14" s="3" t="s"/>
+      <x:c r="H14" s="3" t="s"/>
+      <x:c r="I14" s="3" t="s"/>
+      <x:c r="J14" s="3" t="s"/>
+      <x:c r="K14" s="3" t="s"/>
+      <x:c r="L14" s="10" t="s"/>
+      <x:c r="M14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="B15" s="14">
+        <x:v>44177</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s"/>
+      <x:c r="D15" s="3" t="s"/>
+      <x:c r="E15" s="3" t="s"/>
+      <x:c r="F15" s="3" t="s"/>
+      <x:c r="G15" s="3" t="s"/>
+      <x:c r="H15" s="3" t="s"/>
+      <x:c r="I15" s="3" t="s"/>
+      <x:c r="J15" s="3" t="s"/>
+      <x:c r="K15" s="3" t="s"/>
+      <x:c r="L15" s="10" t="s"/>
+      <x:c r="M15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="B16" s="14">
+        <x:v>44178</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s"/>
+      <x:c r="D16" s="3" t="s"/>
+      <x:c r="E16" s="3" t="s"/>
+      <x:c r="F16" s="3" t="s"/>
+      <x:c r="G16" s="3" t="s"/>
+      <x:c r="H16" s="3" t="s"/>
+      <x:c r="I16" s="3" t="s"/>
+      <x:c r="J16" s="3" t="s"/>
+      <x:c r="K16" s="3" t="s"/>
+      <x:c r="L16" s="10" t="s"/>
+      <x:c r="M16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="B17" s="14">
+        <x:v>44179</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s"/>
+      <x:c r="D17" s="3" t="s"/>
+      <x:c r="E17" s="3" t="s"/>
+      <x:c r="F17" s="3" t="s"/>
+      <x:c r="G17" s="3" t="s"/>
+      <x:c r="H17" s="3" t="s"/>
+      <x:c r="I17" s="3" t="s"/>
+      <x:c r="J17" s="3" t="s"/>
+      <x:c r="K17" s="3" t="s"/>
+      <x:c r="L17" s="10" t="s"/>
+      <x:c r="M17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="B18" s="14">
+        <x:v>44180</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s"/>
+      <x:c r="D18" s="3" t="s"/>
+      <x:c r="E18" s="3" t="s"/>
+      <x:c r="F18" s="3" t="s"/>
+      <x:c r="G18" s="3" t="s"/>
+      <x:c r="H18" s="3" t="s"/>
+      <x:c r="I18" s="3" t="s"/>
+      <x:c r="J18" s="3" t="s"/>
+      <x:c r="K18" s="3" t="s"/>
+      <x:c r="L18" s="10" t="s"/>
+      <x:c r="M18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="B19" s="14">
+        <x:v>44181</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s"/>
+      <x:c r="D19" s="3" t="s"/>
+      <x:c r="E19" s="3" t="s"/>
+      <x:c r="F19" s="3" t="s"/>
+      <x:c r="G19" s="3" t="s"/>
+      <x:c r="H19" s="3" t="s"/>
+      <x:c r="I19" s="3" t="s"/>
+      <x:c r="J19" s="3" t="s"/>
+      <x:c r="K19" s="3" t="s"/>
+      <x:c r="L19" s="10" t="s"/>
+      <x:c r="M19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="B20" s="14">
+        <x:v>44182</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s"/>
+      <x:c r="D20" s="3" t="s"/>
+      <x:c r="E20" s="3" t="s"/>
+      <x:c r="F20" s="3" t="s"/>
+      <x:c r="G20" s="3" t="s"/>
+      <x:c r="H20" s="3" t="s"/>
+      <x:c r="I20" s="3" t="s"/>
+      <x:c r="J20" s="3" t="s"/>
+      <x:c r="K20" s="3" t="s"/>
+      <x:c r="L20" s="10" t="s"/>
+      <x:c r="M20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="B21" s="14">
+        <x:v>44183</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s"/>
+      <x:c r="D21" s="3" t="s"/>
+      <x:c r="E21" s="3" t="s"/>
+      <x:c r="F21" s="3" t="s"/>
+      <x:c r="G21" s="3" t="s"/>
+      <x:c r="H21" s="3" t="s"/>
+      <x:c r="I21" s="3" t="s"/>
+      <x:c r="J21" s="3" t="s"/>
+      <x:c r="K21" s="3" t="s"/>
+      <x:c r="L21" s="10" t="s"/>
+      <x:c r="M21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="B22" s="14">
+        <x:v>44184</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s"/>
+      <x:c r="D22" s="3" t="s"/>
+      <x:c r="E22" s="3" t="s"/>
+      <x:c r="F22" s="3" t="s"/>
+      <x:c r="G22" s="3" t="s"/>
+      <x:c r="H22" s="3" t="s"/>
+      <x:c r="I22" s="3" t="s"/>
+      <x:c r="J22" s="3" t="s"/>
+      <x:c r="K22" s="3" t="s"/>
+      <x:c r="L22" s="10" t="s"/>
+      <x:c r="M22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="B23" s="14">
+        <x:v>44185</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s"/>
+      <x:c r="D23" s="3" t="s"/>
+      <x:c r="E23" s="3" t="s"/>
+      <x:c r="F23" s="3" t="s"/>
+      <x:c r="G23" s="3" t="s"/>
+      <x:c r="H23" s="3" t="s"/>
+      <x:c r="I23" s="3" t="s"/>
+      <x:c r="J23" s="3" t="s"/>
+      <x:c r="K23" s="3" t="s"/>
+      <x:c r="L23" s="10" t="s"/>
+      <x:c r="M23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="B24" s="14">
+        <x:v>44186</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s"/>
+      <x:c r="D24" s="3" t="s"/>
+      <x:c r="E24" s="3" t="s"/>
+      <x:c r="F24" s="3" t="s"/>
+      <x:c r="G24" s="3" t="s"/>
+      <x:c r="H24" s="3" t="s"/>
+      <x:c r="I24" s="3" t="s"/>
+      <x:c r="J24" s="3" t="s"/>
+      <x:c r="K24" s="3" t="s"/>
+      <x:c r="L24" s="10" t="s"/>
+      <x:c r="M24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="B25" s="14">
+        <x:v>44187</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s"/>
+      <x:c r="D25" s="3" t="s"/>
+      <x:c r="E25" s="3" t="s"/>
+      <x:c r="F25" s="3" t="s"/>
+      <x:c r="G25" s="3" t="s"/>
+      <x:c r="H25" s="3" t="s"/>
+      <x:c r="I25" s="3" t="s"/>
+      <x:c r="J25" s="3" t="s"/>
+      <x:c r="K25" s="3" t="s"/>
+      <x:c r="L25" s="10" t="s"/>
+      <x:c r="M25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="B26" s="14">
+        <x:v>44188</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s"/>
+      <x:c r="D26" s="3" t="s"/>
+      <x:c r="E26" s="3" t="s"/>
+      <x:c r="F26" s="3" t="s"/>
+      <x:c r="G26" s="3" t="s"/>
+      <x:c r="H26" s="3" t="s"/>
+      <x:c r="I26" s="3" t="s"/>
+      <x:c r="J26" s="3" t="s"/>
+      <x:c r="K26" s="3" t="s"/>
+      <x:c r="L26" s="10" t="s"/>
+      <x:c r="M26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="B27" s="14">
+        <x:v>44189</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s"/>
+      <x:c r="D27" s="3" t="s"/>
+      <x:c r="E27" s="3" t="s"/>
+      <x:c r="F27" s="3" t="s"/>
+      <x:c r="G27" s="3" t="s"/>
+      <x:c r="H27" s="3" t="s"/>
+      <x:c r="I27" s="3" t="s"/>
+      <x:c r="J27" s="3" t="s"/>
+      <x:c r="K27" s="3" t="s"/>
+      <x:c r="L27" s="10" t="s"/>
+      <x:c r="M27" s="10" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="B28" s="14">
+        <x:v>44190</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s"/>
+      <x:c r="D28" s="3" t="s"/>
+      <x:c r="E28" s="3" t="s"/>
+      <x:c r="F28" s="3" t="s"/>
+      <x:c r="G28" s="3" t="s"/>
+      <x:c r="H28" s="3" t="s"/>
+      <x:c r="I28" s="3" t="s"/>
+      <x:c r="J28" s="3" t="s"/>
+      <x:c r="K28" s="3" t="s"/>
+      <x:c r="L28" s="10" t="s"/>
+      <x:c r="M28" s="10" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="B29" s="14">
+        <x:v>44191</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s"/>
+      <x:c r="D29" s="3" t="s"/>
+      <x:c r="E29" s="3" t="s"/>
+      <x:c r="F29" s="3" t="s"/>
+      <x:c r="G29" s="3" t="s"/>
+      <x:c r="H29" s="3" t="s"/>
+      <x:c r="I29" s="3" t="s"/>
+      <x:c r="J29" s="3" t="s"/>
+      <x:c r="K29" s="3" t="s"/>
+      <x:c r="L29" s="10" t="s"/>
+      <x:c r="M29" s="10" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="B30" s="14">
+        <x:v>44192</x:v>
+      </x:c>
+      <x:c r="C30" s="3" t="s"/>
+      <x:c r="D30" s="3" t="s"/>
+      <x:c r="E30" s="3" t="s"/>
+      <x:c r="F30" s="3" t="s"/>
+      <x:c r="G30" s="3" t="s"/>
+      <x:c r="H30" s="3" t="s"/>
+      <x:c r="I30" s="3" t="s"/>
+      <x:c r="J30" s="3" t="s"/>
+      <x:c r="K30" s="3" t="s"/>
+      <x:c r="L30" s="10" t="s"/>
+      <x:c r="M30" s="10" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="B31" s="14">
+        <x:v>44193</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s"/>
+      <x:c r="D31" s="3" t="s"/>
+      <x:c r="E31" s="3" t="s"/>
+      <x:c r="F31" s="3" t="s"/>
+      <x:c r="G31" s="3" t="s"/>
+      <x:c r="H31" s="3" t="s"/>
+      <x:c r="I31" s="3" t="s"/>
+      <x:c r="J31" s="3" t="s"/>
+      <x:c r="K31" s="3" t="s"/>
+      <x:c r="L31" s="10" t="s"/>
+      <x:c r="M31" s="10" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="B32" s="14">
+        <x:v>44194</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s"/>
+      <x:c r="D32" s="3" t="s"/>
+      <x:c r="E32" s="3" t="s"/>
+      <x:c r="F32" s="3" t="s"/>
+      <x:c r="G32" s="3" t="s"/>
+      <x:c r="H32" s="3" t="s"/>
+      <x:c r="I32" s="3" t="s"/>
+      <x:c r="J32" s="3" t="s"/>
+      <x:c r="K32" s="3" t="s"/>
+      <x:c r="L32" s="10" t="s"/>
+      <x:c r="M32" s="10" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="B33" s="14">
+        <x:v>44195</x:v>
+      </x:c>
+      <x:c r="C33" s="3" t="s"/>
+      <x:c r="D33" s="3" t="s"/>
+      <x:c r="E33" s="3" t="s"/>
+      <x:c r="F33" s="3" t="s"/>
+      <x:c r="G33" s="3" t="s"/>
+      <x:c r="H33" s="3" t="s"/>
+      <x:c r="I33" s="3" t="s"/>
+      <x:c r="J33" s="3" t="s"/>
+      <x:c r="K33" s="3" t="s"/>
+      <x:c r="L33" s="3" t="s"/>
+      <x:c r="M33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="B34" s="14">
+        <x:v>44196</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="s"/>
+      <x:c r="D34" s="3" t="s"/>
+      <x:c r="E34" s="3" t="s"/>
+      <x:c r="F34" s="3" t="s"/>
+      <x:c r="G34" s="3" t="s"/>
+      <x:c r="H34" s="3" t="s"/>
+      <x:c r="I34" s="3" t="s"/>
+      <x:c r="J34" s="3" t="s"/>
+      <x:c r="K34" s="3" t="s"/>
+      <x:c r="L34" s="3" t="s"/>
+      <x:c r="M34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="B35" s="15" t="s"/>
+      <x:c r="C35" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D35" s="15" t="s"/>
+      <x:c r="E35" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F35" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G35" s="15" t="s"/>
+      <x:c r="H35" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I35" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J35" s="15" t="s"/>
+      <x:c r="K35" s="15" t="s"/>
+      <x:c r="L35" s="15" t="s"/>
+      <x:c r="M35" s="15" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="B2:K2"/>
+  </x:mergeCells>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
@@ -6722,7 +7346,9 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s"/>
-      <x:c r="K21" s="19" t="s"/>
+      <x:c r="K21" s="19" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="L21" s="20" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -6921,32 +7547,42 @@
       <x:c r="M33" s="3" t="s"/>
     </x:row>
     <x:row r="34" spans="1:13">
-      <x:c r="B34" s="14">
+      <x:c r="B34" s="16">
         <x:v>44196</x:v>
       </x:c>
-      <x:c r="C34" s="3" t="s"/>
-      <x:c r="D34" s="3" t="s"/>
-      <x:c r="E34" s="3" t="s"/>
-      <x:c r="F34" s="3" t="s"/>
-      <x:c r="G34" s="3" t="s"/>
-      <x:c r="H34" s="3" t="s"/>
-      <x:c r="I34" s="3" t="s"/>
-      <x:c r="J34" s="3" t="s"/>
-      <x:c r="K34" s="3" t="s"/>
-      <x:c r="L34" s="3" t="s"/>
-      <x:c r="M34" s="3" t="s"/>
+      <x:c r="C34" s="17" t="n">
+        <x:v>0.651388888888889</x:v>
+      </x:c>
+      <x:c r="D34" s="19" t="s"/>
+      <x:c r="E34" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F34" s="19" t="n">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="G34" s="19" t="s"/>
+      <x:c r="H34" s="19" t="s"/>
+      <x:c r="I34" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J34" s="19" t="s"/>
+      <x:c r="K34" s="19" t="s"/>
+      <x:c r="L34" s="19" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M34" s="19" t="s"/>
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="B35" s="15" t="s"/>
       <x:c r="C35" s="15" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="15" t="s"/>
       <x:c r="E35" s="15" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F35" s="15" t="n">
-        <x:v>543</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="G35" s="15" t="s"/>
       <x:c r="H35" s="15" t="n">

--- a/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
+++ b/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
@@ -12,22 +12,22 @@
     <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="pgdkqltd2" sheetId="5" r:id="rId5"/>
-    <x:sheet name="pgdbpm" sheetId="6" r:id="rId6"/>
-    <x:sheet name="phuonglnl" sheetId="7" r:id="rId7"/>
-    <x:sheet name="tbpptqtqt" sheetId="8" r:id="rId8"/>
-    <x:sheet name="ptqtqt" sheetId="9" r:id="rId9"/>
-    <x:sheet name="ptgp2" sheetId="10" r:id="rId10"/>
-    <x:sheet name="ptgp3" sheetId="11" r:id="rId11"/>
-    <x:sheet name="ptgp4" sheetId="12" r:id="rId12"/>
-    <x:sheet name="ptgp5" sheetId="13" r:id="rId13"/>
-    <x:sheet name="ptgp6" sheetId="14" r:id="rId14"/>
-    <x:sheet name="ptgp7" sheetId="15" r:id="rId15"/>
-    <x:sheet name="tbpvhht" sheetId="16" r:id="rId16"/>
-    <x:sheet name="vhht1" sheetId="17" r:id="rId17"/>
-    <x:sheet name="vhht2" sheetId="18" r:id="rId18"/>
-    <x:sheet name="vhht3" sheetId="19" r:id="rId19"/>
-    <x:sheet name="thukytgd1" sheetId="20" r:id="rId20"/>
+    <x:sheet name="1. pgdkqltd2" sheetId="5" r:id="rId5"/>
+    <x:sheet name="2. pgdbpm" sheetId="6" r:id="rId6"/>
+    <x:sheet name="3. phuonglnl" sheetId="7" r:id="rId7"/>
+    <x:sheet name="4. tbpptqtqt" sheetId="8" r:id="rId8"/>
+    <x:sheet name="5. ptqtqt" sheetId="9" r:id="rId9"/>
+    <x:sheet name="6. ptgp2" sheetId="10" r:id="rId10"/>
+    <x:sheet name="7. ptgp3" sheetId="11" r:id="rId11"/>
+    <x:sheet name="8. ptgp4" sheetId="12" r:id="rId12"/>
+    <x:sheet name="9. ptgp5" sheetId="13" r:id="rId13"/>
+    <x:sheet name="10. ptgp6" sheetId="14" r:id="rId14"/>
+    <x:sheet name="11. ptgp7" sheetId="15" r:id="rId15"/>
+    <x:sheet name="12. tbpvhht" sheetId="16" r:id="rId16"/>
+    <x:sheet name="13. vhht1" sheetId="17" r:id="rId17"/>
+    <x:sheet name="14. vhht2" sheetId="18" r:id="rId18"/>
+    <x:sheet name="15. vhht3" sheetId="19" r:id="rId19"/>
+    <x:sheet name="16. thukytgd1" sheetId="20" r:id="rId20"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>

--- a/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
+++ b/TimeCard/TimeCard/Temp/LỊCH SỬ CHẤM CÔNG THÁNG 12 NĂM 2020.xlsx
@@ -7566,7 +7566,9 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s"/>
-      <x:c r="K34" s="19" t="s"/>
+      <x:c r="K34" s="19" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="L34" s="19" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -7575,21 +7577,21 @@
     <x:row r="35" spans="1:13">
       <x:c r="B35" s="15" t="s"/>
       <x:c r="C35" s="15" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D35" s="15" t="s"/>
       <x:c r="E35" s="15" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F35" s="15" t="n">
-        <x:v>1001</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="G35" s="15" t="s"/>
       <x:c r="H35" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="J35" s="15" t="s"/>
       <x:c r="K35" s="15" t="s"/>
